--- a/Quản lý nhân sự API.xlsx
+++ b/Quản lý nhân sự API.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,23 @@
   <si>
     <t>API này dùng để hiện thị chức vụ dành cho nhân
  viên</t>
+  </si>
+  <si>
+    <t>Danh sách tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Nhanvien,
+Taikhoan
+Taikhoan_Nhanvien
+Nhomquyen</t>
+  </si>
+  <si>
+    <t>NhanvienID,Tennhanvien,tentaikhoan,Tenquyen
+ (multi record)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,11 +325,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -372,6 +400,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -968,6 +1005,23 @@
       </c>
       <c r="K9" s="9"/>
     </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="D10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
